--- a/Banco_dados/Usuarios.xlsx
+++ b/Banco_dados/Usuarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francisco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sitema_niveis\Banco_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1267FA-52BA-4817-8ED1-2501E2357063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24EC389-934A-49D7-A96F-439375B7FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
+    <workbookView xWindow="5010" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Nome</t>
   </si>
@@ -57,9 +57,6 @@
     <t>foto</t>
   </si>
   <si>
-    <t>Jose Capewa</t>
-  </si>
-  <si>
     <t>capewajose@gmail.com</t>
   </si>
   <si>
@@ -69,32 +66,62 @@
     <t>Nivel1</t>
   </si>
   <si>
-    <t>cap1</t>
-  </si>
-  <si>
-    <t>imagens/pasc.jpeg</t>
-  </si>
-  <si>
-    <t>fabiola</t>
-  </si>
-  <si>
-    <t>cumbicafabiola@gmail.com</t>
-  </si>
-  <si>
-    <t>pascoalnzolaondo@gmail.com</t>
-  </si>
-  <si>
     <t>Nivel2</t>
   </si>
   <si>
-    <t>fab1</t>
+    <t>Domingas Josias</t>
+  </si>
+  <si>
+    <t>Priscila Cassinda</t>
+  </si>
+  <si>
+    <t>domingasjosias68@gmail.com</t>
+  </si>
+  <si>
+    <t>cassindapriscila@gmail.com</t>
+  </si>
+  <si>
+    <t>cursos.imil@gmail.com</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
+    <t>prisca</t>
+  </si>
+  <si>
+    <t>imagens/dom.jpeg</t>
+  </si>
+  <si>
+    <t>N_BI</t>
+  </si>
+  <si>
+    <t>003456123LA045</t>
+  </si>
+  <si>
+    <t>050561365CE054</t>
+  </si>
+  <si>
+    <t>Silvio Santiago</t>
+  </si>
+  <si>
+    <t>003445217LA044</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>imagens/OIP.jfif</t>
+  </si>
+  <si>
+    <t>santiago44325@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +136,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,13 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -454,99 +488,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5193716D-AEED-430E-A7B0-06B4672C713C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>38892</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>39415</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>38948</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>38878</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="E4" s="2">
+        <v>34962</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AF1A3D99-8CDB-4451-A624-E2E589D347ED}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{EAAC7CA5-6B81-4E2F-AB35-82ED1DB63B4D}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{17176297-FE6E-4AC4-B0F9-DD59BE04D1FB}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{79613920-4D48-4961-85E6-427F1A0EFDB7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AF1A3D99-8CDB-4451-A624-E2E589D347ED}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{EAAC7CA5-6B81-4E2F-AB35-82ED1DB63B4D}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{17176297-FE6E-4AC4-B0F9-DD59BE04D1FB}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{79613920-4D48-4961-85E6-427F1A0EFDB7}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{41F611D7-7613-40D0-9264-97AB3E6FB9F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Banco_dados/Usuarios.xlsx
+++ b/Banco_dados/Usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sitema_niveis\Banco_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24EC389-934A-49D7-A96F-439375B7FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB703337-1C4A-4103-B949-55053F06E1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Nome</t>
   </si>
@@ -57,9 +57,6 @@
     <t>foto</t>
   </si>
   <si>
-    <t>capewajose@gmail.com</t>
-  </si>
-  <si>
     <t>ilcode851@gmail.com</t>
   </si>
   <si>
@@ -69,59 +66,56 @@
     <t>Nivel2</t>
   </si>
   <si>
-    <t>Domingas Josias</t>
-  </si>
-  <si>
-    <t>Priscila Cassinda</t>
-  </si>
-  <si>
-    <t>domingasjosias68@gmail.com</t>
-  </si>
-  <si>
-    <t>cassindapriscila@gmail.com</t>
-  </si>
-  <si>
     <t>cursos.imil@gmail.com</t>
   </si>
   <si>
-    <t>dom</t>
-  </si>
-  <si>
-    <t>prisca</t>
-  </si>
-  <si>
     <t>imagens/dom.jpeg</t>
   </si>
   <si>
     <t>N_BI</t>
   </si>
   <si>
-    <t>003456123LA045</t>
-  </si>
-  <si>
-    <t>050561365CE054</t>
-  </si>
-  <si>
-    <t>Silvio Santiago</t>
-  </si>
-  <si>
-    <t>003445217LA044</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>imagens/OIP.jfif</t>
-  </si>
-  <si>
-    <t>santiago44325@gmail.com</t>
+    <t>Fabiola Cumbica</t>
+  </si>
+  <si>
+    <t>004456523LA045</t>
+  </si>
+  <si>
+    <t>cumbicafabiola@gmail.com</t>
+  </si>
+  <si>
+    <t>Anabela Pedro</t>
+  </si>
+  <si>
+    <t>030561265CE055</t>
+  </si>
+  <si>
+    <t>anabelafelicidadepedro08@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario Salvador</t>
+  </si>
+  <si>
+    <t>023445217LA054</t>
+  </si>
+  <si>
+    <t>mariopaulobunga@gmail.com</t>
+  </si>
+  <si>
+    <t>imagens/OIP (1).jfif</t>
+  </si>
+  <si>
+    <t>imagens/IMG_0039.JPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +130,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,14 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -491,7 +478,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -533,80 +520,80 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1234</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>38892</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>39415</v>
+        <v>39243</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>34962</v>
+        <v>38973</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>123456</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -616,8 +603,9 @@
     <hyperlink ref="C3" r:id="rId3" xr:uid="{17176297-FE6E-4AC4-B0F9-DD59BE04D1FB}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{79613920-4D48-4961-85E6-427F1A0EFDB7}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{41F611D7-7613-40D0-9264-97AB3E6FB9F5}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{B2F9FA12-5927-448E-8667-47BEB851EADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Banco_dados/Usuarios.xlsx
+++ b/Banco_dados/Usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sitema_niveis\Banco_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB703337-1C4A-4103-B949-55053F06E1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEA1A5-C747-4075-928B-5E490CBF4B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{15A1AAAC-8E83-4AD3-8AF6-AB24EE209297}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Nome</t>
   </si>
@@ -69,24 +69,15 @@
     <t>cursos.imil@gmail.com</t>
   </si>
   <si>
-    <t>imagens/dom.jpeg</t>
-  </si>
-  <si>
     <t>N_BI</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Fabiola Cumbica</t>
-  </si>
-  <si>
     <t>004456523LA045</t>
   </si>
   <si>
-    <t>cumbicafabiola@gmail.com</t>
-  </si>
-  <si>
     <t>Anabela Pedro</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t>imagens/IMG_0039.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano </t>
+  </si>
+  <si>
+    <t>fulano@gmail.com</t>
+  </si>
+  <si>
+    <t>fula@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5193716D-AEED-430E-A7B0-06B4672C713C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A8" sqref="A8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -520,16 +520,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>38795</v>
@@ -541,18 +541,18 @@
         <v>1234</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -567,18 +567,18 @@
         <v>12345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -587,13 +587,169 @@
         <v>38973</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>123456</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>38795</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>12345</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38973</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>123456</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38795</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1234</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>39243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>12345</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38973</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>123456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -604,8 +760,20 @@
     <hyperlink ref="D3" r:id="rId4" xr:uid="{79613920-4D48-4961-85E6-427F1A0EFDB7}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{41F611D7-7613-40D0-9264-97AB3E6FB9F5}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{B2F9FA12-5927-448E-8667-47BEB851EADC}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{4F1C4A29-8FBC-4561-ADF0-DBBFEFF9273C}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{26D00A96-817F-4B00-9C31-F5F33CBE3A99}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{086CEB56-8155-4E53-A072-EBD6CF57EF60}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{DB9938EF-68AA-4CCB-A72F-4333A2D79172}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{17486D2E-F370-43C1-B3E0-59D698BD6579}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{57D6A145-9253-4871-9049-A4D6C128E89F}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{54B42E2A-5BFE-47FE-B4BE-77F1BD4D666C}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{51728408-339A-466A-899E-1A6284C19AEB}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{3A3B87D8-2E61-497A-85BC-2C46C3A8DD11}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{BC73A4FD-8515-49BF-9BF3-CD17CCFB6F49}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{622B8796-E6BF-4843-814B-D89FE0E0CD46}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{95933AA5-9627-44B1-8EEB-A2CD8709D5E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId19"/>
 </worksheet>
 </file>